--- a/results/Homeopathy_excluded/mod4.galtan.nonlinear.slopes.MN.xlsx
+++ b/results/Homeopathy_excluded/mod4.galtan.nonlinear.slopes.MN.xlsx
@@ -428,25 +428,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0971243507124128</v>
+        <v>0.0971236657953789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.112443403904196</v>
+        <v>0.112441723436788</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.123260671238901</v>
+        <v>-0.123258062500338</v>
       </c>
       <c r="G2" t="n">
-        <v>0.317509372663727</v>
+        <v>0.317505394091096</v>
       </c>
       <c r="H2" t="n">
-        <v>0.863762100222126</v>
+        <v>0.863768918038504</v>
       </c>
       <c r="I2" t="n">
-        <v>0.387718591634754</v>
+        <v>0.387714845582844</v>
       </c>
     </row>
     <row r="3">
@@ -457,25 +457,25 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.180825414764736</v>
+        <v>-0.180833796820582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.256409951693725</v>
+        <v>0.256406731586402</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.683379685362091</v>
+        <v>-0.683381756123558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.32172885583262</v>
+        <v>0.321714162482394</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.705219955661966</v>
+        <v>-0.705261502698288</v>
       </c>
       <c r="I3" t="n">
-        <v>0.480673364380355</v>
+        <v>0.480647513294786</v>
       </c>
     </row>
     <row r="4">
@@ -486,25 +486,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0985815005436622</v>
+        <v>-0.0985701854733181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.120830955970953</v>
+        <v>0.120829968108935</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.335405822464276</v>
+        <v>-0.335392571219954</v>
       </c>
       <c r="G4" t="n">
-        <v>0.138242821376952</v>
+        <v>0.138252200273318</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.81586295292872</v>
+        <v>-0.815775978558991</v>
       </c>
       <c r="I4" t="n">
-        <v>0.414578522941426</v>
+        <v>0.414628274481597</v>
       </c>
     </row>
     <row r="5">
@@ -515,25 +515,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.182282564595985</v>
+        <v>0.182280316498521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.097475250727796</v>
+        <v>0.0974743029033067</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00876541621450691</v>
+        <v>-0.0087658066101077</v>
       </c>
       <c r="G5" t="n">
-        <v>0.373330545406477</v>
+        <v>0.373326439607151</v>
       </c>
       <c r="H5" t="n">
-        <v>1.87003945345078</v>
+        <v>1.87003457392602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0614783392935562</v>
+        <v>0.0614790168497811</v>
       </c>
     </row>
     <row r="6">
@@ -544,25 +544,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0747638584173024</v>
+        <v>0.0747695674093915</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0664041297540032</v>
+        <v>0.0664037560241353</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0553858443252685</v>
+        <v>-0.0553794028360982</v>
       </c>
       <c r="G6" t="n">
-        <v>0.204913561159873</v>
+        <v>0.204918537654881</v>
       </c>
       <c r="H6" t="n">
-        <v>1.12589169821618</v>
+        <v>1.1259840088295</v>
       </c>
       <c r="I6" t="n">
-        <v>0.260211363733256</v>
+        <v>0.260172288074127</v>
       </c>
     </row>
     <row r="7">
@@ -573,25 +573,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.235345530553031</v>
+        <v>-0.235353667874493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16218080555779</v>
+        <v>0.162180228556602</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.553214068429993</v>
+        <v>-0.553221074849907</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0825230073239309</v>
+        <v>0.0825137391009215</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.45113060539812</v>
+        <v>-1.45118594275721</v>
       </c>
       <c r="I7" t="n">
-        <v>0.146743495676125</v>
+        <v>0.146728090143119</v>
       </c>
     </row>
     <row r="8">
@@ -602,25 +602,25 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0565487271732303</v>
+        <v>0.0565480956935998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0702038404650212</v>
+        <v>0.0702036620216489</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.081048271714607</v>
+        <v>-0.0810485534516544</v>
       </c>
       <c r="G8" t="n">
-        <v>0.194145726061068</v>
+        <v>0.194144744838854</v>
       </c>
       <c r="H8" t="n">
-        <v>0.805493357609196</v>
+        <v>0.805486410041714</v>
       </c>
       <c r="I8" t="n">
-        <v>0.420535037909147</v>
+        <v>0.420539045511985</v>
       </c>
     </row>
     <row r="9">
@@ -631,25 +631,25 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.104032944962498</v>
+        <v>0.104036004771502</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0590091858402698</v>
+        <v>0.0590090150601616</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0116229340414614</v>
+        <v>-0.0116195395095967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.219688823966458</v>
+        <v>0.2196915490526</v>
       </c>
       <c r="H9" t="n">
-        <v>1.76299576889778</v>
+        <v>1.7630527244936</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0779012032808277</v>
+        <v>0.0778915976127984</v>
       </c>
     </row>
     <row r="10">
@@ -660,25 +660,25 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0846740282792538</v>
+        <v>0.0846669567921792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0892361517095712</v>
+        <v>0.0892348669253954</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0902256151904582</v>
+        <v>-0.0902301685468201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.259573671748966</v>
+        <v>0.259564082131179</v>
       </c>
       <c r="H10" t="n">
-        <v>0.948875838514805</v>
+        <v>0.948810254437482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.342683764428793</v>
+        <v>0.342717125511315</v>
       </c>
     </row>
     <row r="11">
@@ -689,25 +689,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.200439630421685</v>
+        <v>0.200451764456483</v>
       </c>
       <c r="D11" t="n">
-        <v>0.208861604852851</v>
+        <v>0.208857761739349</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.20892159284314</v>
+        <v>-0.208901926444288</v>
       </c>
       <c r="G11" t="n">
-        <v>0.609800853686509</v>
+        <v>0.609805455357253</v>
       </c>
       <c r="H11" t="n">
-        <v>0.959676770476316</v>
+        <v>0.959752526251064</v>
       </c>
       <c r="I11" t="n">
-        <v>0.337217917933958</v>
+        <v>0.337179780465614</v>
       </c>
     </row>
     <row r="12">
@@ -718,25 +718,25 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0924118228423085</v>
+        <v>-0.0924146130872429</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0999136966464956</v>
+        <v>0.0999126325233581</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2882390698317</v>
+        <v>-0.28823977443361</v>
       </c>
       <c r="G12" t="n">
-        <v>0.103415424147083</v>
+        <v>0.103410548259124</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.924916462347205</v>
+        <v>-0.924954240052055</v>
       </c>
       <c r="I12" t="n">
-        <v>0.355009362721301</v>
+        <v>0.35498971080107</v>
       </c>
     </row>
     <row r="13">
@@ -747,25 +747,25 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.19270183585863</v>
+        <v>-0.192704108161419</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0790921060148495</v>
+        <v>0.0790909469481775</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.347719515109159</v>
+        <v>-0.347719515683015</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0376841566081009</v>
+        <v>-0.0376887006398229</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.43642312195417</v>
+        <v>-2.43648755764277</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0148333221478777</v>
+        <v>0.0148306796649258</v>
       </c>
     </row>
   </sheetData>
